--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="119">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -377,12 +377,6 @@
   </si>
   <si>
     <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П/ф Качокавалло 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П/ф Качокавалло 45% большие головки</t>
   </si>
 </sst>
 </file>
@@ -499,10 +493,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4539,130 +4533,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J62" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="L62" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="S62" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="T62" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="U62" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="V62" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W62" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="X62" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="L63" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="T63" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="U63" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="V63" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W63" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="X63" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -495,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1941,7 +1941,7 @@
         <v>25</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>40</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="120">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маркет Перекресток</t>
   </si>
   <si>
     <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
@@ -386,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -416,6 +419,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,13 +476,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -496,7 +509,7 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2902,7 +2915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -2924,8 +2937,8 @@
       <c r="G37" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>86</v>
+      <c r="H37" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>280</v>
@@ -2972,7 +2985,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2.7</v>
@@ -3034,7 +3047,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2.7</v>
@@ -3099,7 +3112,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2.7</v>
@@ -3164,7 +3177,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2.7</v>
@@ -3226,7 +3239,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2.7</v>
@@ -3291,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3.3</v>
@@ -3309,7 +3322,7 @@
         <v>45</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>100</v>
@@ -3359,7 +3372,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3.3</v>
@@ -3377,7 +3390,7 @@
         <v>45</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>100</v>
@@ -3427,7 +3440,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2.7</v>
@@ -3492,7 +3505,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2.7</v>
@@ -3557,7 +3570,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2.7</v>
@@ -3619,7 +3632,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2.7</v>
@@ -3684,7 +3697,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2.7</v>
@@ -3749,7 +3762,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>3.6</v>
@@ -3761,13 +3774,13 @@
         <v>33</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>700</v>
@@ -3785,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>120</v>
@@ -3811,7 +3824,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3.3</v>
@@ -3879,7 +3892,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3.3</v>
@@ -3897,7 +3910,7 @@
         <v>45</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>100</v>
@@ -3947,7 +3960,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>3.3</v>
@@ -4015,7 +4028,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>3.3</v>
@@ -4033,7 +4046,7 @@
         <v>45</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>100</v>
@@ -4083,7 +4096,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>3.3</v>
@@ -4151,7 +4164,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2.7</v>
@@ -4216,7 +4229,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>3.6</v>
@@ -4228,7 +4241,7 @@
         <v>33</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>27</v>
@@ -4252,7 +4265,7 @@
         <v>29</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>850</v>
@@ -4281,7 +4294,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3.6</v>
@@ -4293,7 +4306,7 @@
         <v>33</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>27</v>
@@ -4317,7 +4330,7 @@
         <v>29</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>850</v>
@@ -4346,7 +4359,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>3.6</v>
@@ -4358,7 +4371,7 @@
         <v>33</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>27</v>
@@ -4382,7 +4395,7 @@
         <v>29</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>850</v>
@@ -4411,7 +4424,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2.7</v>
@@ -4476,7 +4489,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3.6</v>
@@ -4488,13 +4501,13 @@
         <v>33</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>700</v>
@@ -4512,7 +4525,7 @@
         <v>29</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S61" s="0" t="n">
         <v>120</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="120">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Альче</t>
   </si>
   <si>
-    <t xml:space="preserve">Терка</t>
+    <t xml:space="preserve">Терка Моцареллы</t>
   </si>
   <si>
     <t xml:space="preserve">Unagrande</t>
@@ -163,9 +163,6 @@
     <t xml:space="preserve">Orecchio Oro</t>
   </si>
   <si>
-    <t xml:space="preserve">Мультиголова/Комет</t>
-  </si>
-  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
   </si>
   <si>
@@ -196,7 +193,7 @@
     <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
   </si>
   <si>
-    <t xml:space="preserve">САККАРДО другой цех</t>
+    <t xml:space="preserve">САККАРДО</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
@@ -295,6 +292,9 @@
     <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Терка Сулугуни</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
   </si>
   <si>
@@ -367,9 +367,6 @@
     <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
   </si>
   <si>
-    <t xml:space="preserve">САККАРДО</t>
-  </si>
-  <si>
     <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -419,12 +419,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,7 +479,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -800,7 +794,7 @@
       <c r="E5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="0" t="s">
@@ -1017,7 +1011,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>960</v>
@@ -1049,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3.3</v>
@@ -1085,7 +1079,7 @@
         <v>29</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>1200</v>
@@ -1117,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3.3</v>
@@ -1135,7 +1129,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>125</v>
@@ -1153,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>1200</v>
@@ -1185,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3.3</v>
@@ -1197,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -1221,7 +1215,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>1020</v>
@@ -1253,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3.3</v>
@@ -1265,7 +1259,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -1289,7 +1283,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>876</v>
@@ -1321,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3.6</v>
@@ -1357,7 +1351,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>840</v>
@@ -1389,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
@@ -1454,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
@@ -1490,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>728</v>
@@ -1519,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
@@ -1537,7 +1531,7 @@
         <v>27</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>200</v>
@@ -1584,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
@@ -1602,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>370</v>
@@ -1649,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2.7</v>
@@ -1714,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.7</v>
@@ -1779,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2.7</v>
@@ -1797,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>120</v>
@@ -1844,7 +1838,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2.7</v>
@@ -1862,7 +1856,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>120</v>
@@ -1909,7 +1903,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3.3</v>
@@ -1977,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3.3</v>
@@ -1995,7 +1989,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>125</v>
@@ -2013,7 +2007,7 @@
         <v>29</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>1200</v>
@@ -2045,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3.3</v>
@@ -2081,7 +2075,7 @@
         <v>29</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>960</v>
@@ -2108,12 +2102,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3.3</v>
@@ -2149,7 +2143,7 @@
         <v>29</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>960</v>
@@ -2176,12 +2170,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3.6</v>
@@ -2217,7 +2211,7 @@
         <v>29</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>960</v>
@@ -2244,12 +2238,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3.3</v>
@@ -2267,7 +2261,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>100</v>
@@ -2285,7 +2279,7 @@
         <v>29</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>960</v>
@@ -2312,12 +2306,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3.3</v>
@@ -2335,7 +2329,7 @@
         <v>45</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>125</v>
@@ -2353,7 +2347,7 @@
         <v>29</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>1200</v>
@@ -2380,12 +2374,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3.3</v>
@@ -2397,13 +2391,13 @@
         <v>25</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>125</v>
@@ -2421,7 +2415,7 @@
         <v>29</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>876</v>
@@ -2448,12 +2442,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3.3</v>
@@ -2465,7 +2459,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>45</v>
@@ -2489,7 +2483,7 @@
         <v>29</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>702</v>
@@ -2516,12 +2510,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3.6</v>
@@ -2533,7 +2527,7 @@
         <v>33</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>45</v>
@@ -2557,7 +2551,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>876</v>
@@ -2584,12 +2578,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3.3</v>
@@ -2601,13 +2595,13 @@
         <v>25</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>100</v>
@@ -2625,7 +2619,7 @@
         <v>29</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>702</v>
@@ -2652,12 +2646,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>3.3</v>
@@ -2669,13 +2663,13 @@
         <v>25</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>125</v>
@@ -2693,7 +2687,7 @@
         <v>29</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>876</v>
@@ -2725,7 +2719,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2.7</v>
@@ -2743,7 +2737,7 @@
         <v>27</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>460</v>
@@ -2761,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>728</v>
@@ -2790,7 +2784,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2.7</v>
@@ -2802,13 +2796,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>370</v>
@@ -2855,7 +2849,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2.7</v>
@@ -2867,13 +2861,13 @@
         <v>33</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>280</v>
@@ -2920,7 +2914,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2.7</v>
@@ -2932,13 +2926,13 @@
         <v>25</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>280</v>
@@ -2985,7 +2979,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2.7</v>
@@ -2997,13 +2991,13 @@
         <v>33</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>120</v>
@@ -3059,13 +3053,13 @@
         <v>33</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>200</v>
@@ -3124,13 +3118,13 @@
         <v>33</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>280</v>
@@ -3189,13 +3183,13 @@
         <v>33</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>120</v>
@@ -3251,13 +3245,13 @@
         <v>33</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>120</v>
@@ -3316,7 +3310,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>45</v>
@@ -3340,7 +3334,7 @@
         <v>29</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>1020</v>
@@ -3408,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>960</v>
@@ -3458,7 +3452,7 @@
         <v>27</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>120</v>
@@ -3523,7 +3517,7 @@
         <v>27</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>280</v>
@@ -3608,6 +3602,9 @@
       <c r="N47" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="P47" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="S47" s="0" t="n">
         <v>90</v>
       </c>
@@ -3819,7 +3816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>29</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>1000</v>
@@ -3887,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>29</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>960</v>
@@ -3955,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>45</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>125</v>
@@ -3996,7 +3993,7 @@
         <v>29</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>1200</v>
@@ -4023,7 +4020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -4040,7 +4037,7 @@
         <v>25</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>45</v>
@@ -4064,7 +4061,7 @@
         <v>29</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>960</v>
@@ -4091,7 +4088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -4108,13 +4105,13 @@
         <v>33</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>125</v>
@@ -4132,7 +4129,7 @@
         <v>29</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>876</v>
@@ -4176,13 +4173,13 @@
         <v>33</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>120</v>
@@ -4265,7 +4262,7 @@
         <v>29</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>850</v>
@@ -4294,7 +4291,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3.6</v>
@@ -4359,7 +4356,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>3.6</v>
@@ -4424,7 +4421,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2.7</v>
@@ -4436,13 +4433,13 @@
         <v>33</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>200</v>
@@ -4489,7 +4486,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3.6</v>
@@ -4543,6 +4540,71 @@
         <v>15</v>
       </c>
       <c r="X61" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="X62" s="0" t="n">
         <v>10</v>
       </c>
     </row>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="120">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Вес нетто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коробки</t>
   </si>
   <si>
     <t xml:space="preserve">Вес форм фактора</t>
@@ -418,12 +421,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -467,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,6 +489,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -489,6 +502,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -497,26 +570,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="7" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,134 +662,143 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="J2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="O2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V2" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X2" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y2" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="J3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="O3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U3" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V3" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -725,63 +807,66 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="N4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="U4" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V4" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X4" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -790,63 +875,66 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="N5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V5" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X5" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -855,359 +943,374 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>30</v>
+      <c r="M6" s="0" t="n">
+        <v>35</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="T6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U6" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X6" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y6" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="O7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U7" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V7" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X7" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y7" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>30</v>
+      <c r="M8" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U8" s="0" t="n">
+      <c r="T8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V8" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W8" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>30</v>
+      <c r="M9" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U9" s="0" t="n">
+      <c r="T9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V9" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W9" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M10" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U10" s="0" t="n">
+      <c r="T10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V10" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V10" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W10" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>100</v>
@@ -1216,66 +1319,69 @@
         <v>8</v>
       </c>
       <c r="K11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>30</v>
+      <c r="M11" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V11" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W11" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>125</v>
@@ -1284,1198 +1390,1252 @@
         <v>8</v>
       </c>
       <c r="K12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>30</v>
+      <c r="M12" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W12" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>200</v>
       </c>
       <c r="J13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>30</v>
+      <c r="M13" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="0" t="n">
         <v>840</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U13" s="0" t="n">
+      <c r="T13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V13" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W13" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>460</v>
       </c>
       <c r="J14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M14" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N14" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="O14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U14" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V14" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X14" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X14" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y14" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>460</v>
       </c>
       <c r="J15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M15" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="0" t="n">
         <v>728</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U15" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V15" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X15" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X15" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y15" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>200</v>
       </c>
       <c r="J16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M16" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="O16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="U16" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V16" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X16" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y16" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>370</v>
       </c>
       <c r="J17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="O17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U17" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V17" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X17" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y17" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="O18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U18" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V18" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X18" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y18" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M19" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N19" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="O19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="T19" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U19" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X19" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y19" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L20" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N20" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="O20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="T20" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U20" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X20" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X20" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y20" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L21" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L21" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>30</v>
+      <c r="M21" s="0" t="n">
+        <v>35</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="O21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="T21" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U21" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X21" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y21" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>30</v>
+      <c r="M22" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S22" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="U22" s="0" t="n">
+      <c r="T22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V22" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V22" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W22" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K23" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N23" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S23" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U23" s="0" t="n">
+      <c r="T23" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V23" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V23" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W23" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>30</v>
+      <c r="M24" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S24" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U24" s="0" t="n">
+      <c r="T24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V24" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V24" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W24" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L25" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>30</v>
+      <c r="M25" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U25" s="0" t="n">
+      <c r="T25" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V25" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V25" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W25" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>30</v>
+      <c r="M26" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S26" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U26" s="0" t="n">
+      <c r="T26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V26" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V26" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W26" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M27" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N27" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S27" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U27" s="0" t="n">
+      <c r="T27" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V27" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V27" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W27" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K28" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M28" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S28" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U28" s="0" t="n">
+      <c r="T28" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V28" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V28" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W28" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M29" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N29" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V29" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W29" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>100</v>
@@ -2484,66 +2644,69 @@
         <v>8</v>
       </c>
       <c r="K30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L30" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>30</v>
+      <c r="M30" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="0" t="n">
         <v>702</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V30" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W30" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>125</v>
@@ -2552,370 +2715,388 @@
         <v>8</v>
       </c>
       <c r="K31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L31" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>30</v>
+      <c r="M31" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V31" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W31" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J32" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K32" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M32" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N32" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="0" t="n">
         <v>702</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V32" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W32" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J33" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K33" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M33" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N33" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="T33" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="V33" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V33" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W33" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>460</v>
       </c>
       <c r="J34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M34" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N34" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R34" s="0" t="n">
         <v>728</v>
       </c>
-      <c r="T34" s="0" t="n">
+      <c r="U34" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U34" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V34" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X34" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X34" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y34" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>370</v>
       </c>
       <c r="J35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>30</v>
+      <c r="M35" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="O35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="U35" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U35" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V35" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X35" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X35" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y35" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M36" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N36" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="O36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="U36" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U36" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V36" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X36" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X36" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y36" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2924,63 +3105,66 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K37" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M37" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N37" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q37" s="0" t="n">
+      <c r="O37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T37" s="0" t="n">
+      <c r="U37" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U37" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V37" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W37" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X37" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X37" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y37" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z37" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2989,128 +3173,134 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="L38" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="M38" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M38" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="N38" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q38" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="Q38" s="0" t="n">
+      <c r="R38" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="U38" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V38" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X38" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X38" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y38" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>200</v>
       </c>
       <c r="J39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="L39" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L39" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>30</v>
+      <c r="M39" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q39" s="0" t="n">
+      <c r="O39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T39" s="0" t="n">
+      <c r="U39" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="U39" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V39" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W39" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X39" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X39" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y39" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3119,63 +3309,66 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J40" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K40" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="L40" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L40" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>30</v>
+      <c r="M40" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" s="0" t="n">
+      <c r="O40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="U40" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U40" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V40" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W40" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X40" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y40" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z40" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3184,155 +3377,161 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="L41" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="M41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M41" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="N41" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P41" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q41" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="Q41" s="0" t="n">
+      <c r="R41" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="U41" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V41" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W41" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X41" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X41" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y41" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L42" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L42" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>30</v>
+      <c r="M42" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q42" s="0" t="n">
+      <c r="O42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="T42" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U42" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X42" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X42" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y42" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>100</v>
@@ -3341,793 +3540,829 @@
         <v>8</v>
       </c>
       <c r="K43" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L43" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L43" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>30</v>
+      <c r="M43" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q43" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R43" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R43" s="0" t="n">
+      <c r="S43" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S43" s="0" t="n">
+      <c r="T43" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U43" s="0" t="n">
+      <c r="V43" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V43" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W43" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K44" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="L44" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L44" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>30</v>
+      <c r="M44" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q44" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R44" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="S44" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S44" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U44" s="0" t="n">
+      <c r="T44" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V44" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V44" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W44" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X44" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y44" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L45" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="M45" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M45" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N45" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="0" t="n">
+      <c r="O45" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="T45" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U45" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X45" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X45" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y45" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="L46" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="M46" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M46" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N46" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q46" s="0" t="n">
+      <c r="O46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T46" s="0" t="n">
+      <c r="U46" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U46" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V46" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W46" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X46" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X46" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y46" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="L47" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="M47" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="M47" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N47" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q47" s="0" t="n">
+      <c r="O47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T47" s="0" t="n">
+      <c r="U47" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="U47" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V47" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X47" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X47" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y47" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="J48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="L48" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="M48" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M48" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N48" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="0" t="n">
+      <c r="O48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T48" s="0" t="n">
+      <c r="U48" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U48" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V48" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W48" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X48" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X48" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y48" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>460</v>
       </c>
       <c r="J49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="L49" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="M49" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="M49" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N49" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q49" s="0" t="n">
+      <c r="O49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T49" s="0" t="n">
+      <c r="U49" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U49" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V49" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W49" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X49" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X49" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y49" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>700</v>
       </c>
       <c r="J50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="L50" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="M50" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="M50" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N50" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="T50" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="U50" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U50" s="0" t="n">
+      <c r="V50" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V50" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W50" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y50" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K51" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="L51" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M51" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N51" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q51" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R51" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="R51" s="0" t="n">
+      <c r="S51" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S51" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U51" s="0" t="n">
+      <c r="T51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V51" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V51" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W51" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y51" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J52" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="L52" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L52" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>30</v>
+      <c r="M52" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R52" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R52" s="0" t="n">
+      <c r="S52" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U52" s="0" t="n">
+      <c r="T52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V52" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V52" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W52" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y52" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="L53" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L53" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>30</v>
+      <c r="M53" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q53" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R53" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R53" s="0" t="n">
+      <c r="S53" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S53" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U53" s="0" t="n">
+      <c r="T53" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V53" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V53" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W53" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y53" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z53" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J54" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="L54" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L54" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>30</v>
+      <c r="M54" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q54" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R54" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R54" s="0" t="n">
+      <c r="S54" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S54" s="0" t="n">
+      <c r="T54" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U54" s="0" t="n">
+      <c r="V54" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V54" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="W54" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y54" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z54" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>125</v>
@@ -4136,491 +4371,515 @@
         <v>8</v>
       </c>
       <c r="K55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L55" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="L55" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>30</v>
+      <c r="M55" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q55" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R55" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="R55" s="0" t="n">
+      <c r="S55" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S55" s="0" t="n">
+      <c r="T55" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U55" s="0" t="n">
+      <c r="V55" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V55" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W55" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y55" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K56" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L56" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L56" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>30</v>
+      <c r="M56" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q56" s="0" t="n">
+      <c r="O56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="T56" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U56" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W56" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X56" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X56" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y56" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z56" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>260</v>
       </c>
       <c r="J57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K57" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="L57" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="M57" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="M57" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N57" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q57" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R57" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="T57" s="0" t="n">
+      <c r="U57" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U57" s="0" t="n">
+      <c r="V57" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V57" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W57" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y57" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z57" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>700</v>
       </c>
       <c r="J58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="L58" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="M58" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="M58" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N58" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q58" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="R58" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="T58" s="0" t="n">
+      <c r="U58" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U58" s="0" t="n">
+      <c r="V58" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V58" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W58" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y58" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z58" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>700</v>
       </c>
       <c r="J59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="L59" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="M59" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="M59" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N59" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q59" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="R59" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="T59" s="0" t="n">
+      <c r="U59" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U59" s="0" t="n">
+      <c r="V59" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V59" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W59" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X59" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y59" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>200</v>
       </c>
       <c r="J60" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K60" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="L60" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L60" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>30</v>
+      <c r="M60" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q60" s="0" t="n">
+      <c r="O60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="T60" s="0" t="n">
+      <c r="U60" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="U60" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="V60" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W60" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X60" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X60" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y60" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z60" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>700</v>
       </c>
       <c r="J61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="L61" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="M61" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="M61" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="N61" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="T61" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="U61" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="U61" s="0" t="n">
+      <c r="V61" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V61" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="W61" s="0" t="n">
         <v>35</v>
       </c>
       <c r="X61" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y61" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="J62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="L62" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="L62" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>30</v>
+      <c r="M62" s="0" t="n">
+        <v>35</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q62" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R62" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="T62" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U62" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W62" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X62" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X62" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="Y62" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z62" s="0" t="n">
         <v>10</v>
       </c>
     </row>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -421,18 +421,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -489,7 +483,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,66 +496,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -573,7 +507,7 @@
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3815,7 +3749,7 @@
         <v>200</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>200</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -470,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,10 +480,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X62" activeCellId="0" sqref="X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,10 +649,10 @@
         <v>90</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>20</v>
@@ -721,10 +717,10 @@
         <v>120</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>20</v>
@@ -789,10 +785,10 @@
         <v>288</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>20</v>
@@ -857,10 +853,10 @@
         <v>360</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>20</v>
@@ -925,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>20</v>
@@ -993,10 +989,10 @@
         <v>120</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X7" s="0" t="n">
         <v>20</v>
@@ -1487,10 +1483,10 @@
         <v>120</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>20</v>
@@ -1555,10 +1551,10 @@
         <v>120</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X15" s="0" t="n">
         <v>20</v>
@@ -1623,10 +1619,10 @@
         <v>90</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>20</v>
@@ -1691,10 +1687,10 @@
         <v>120</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>20</v>
@@ -1759,10 +1755,10 @@
         <v>120</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X18" s="0" t="n">
         <v>20</v>
@@ -1827,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>20</v>
@@ -1895,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X20" s="0" t="n">
         <v>20</v>
@@ -1963,10 +1959,10 @@
         <v>10</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X21" s="0" t="n">
         <v>20</v>
@@ -2883,10 +2879,10 @@
         <v>120</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>20</v>
@@ -2951,10 +2947,10 @@
         <v>120</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X35" s="0" t="n">
         <v>20</v>
@@ -3019,10 +3015,10 @@
         <v>120</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>20</v>
@@ -3087,10 +3083,10 @@
         <v>120</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X37" s="0" t="n">
         <v>20</v>
@@ -3155,10 +3151,10 @@
         <v>288</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X38" s="0" t="n">
         <v>20</v>
@@ -3223,10 +3219,10 @@
         <v>90</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X39" s="0" t="n">
         <v>20</v>
@@ -3291,10 +3287,10 @@
         <v>120</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X40" s="0" t="n">
         <v>20</v>
@@ -3359,10 +3355,10 @@
         <v>288</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X41" s="0" t="n">
         <v>20</v>
@@ -3427,10 +3423,10 @@
         <v>10</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X42" s="0" t="n">
         <v>20</v>
@@ -3637,10 +3633,10 @@
         <v>10</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W45" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X45" s="0" t="n">
         <v>20</v>
@@ -3705,10 +3701,10 @@
         <v>120</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W46" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X46" s="0" t="n">
         <v>20</v>
@@ -3748,7 +3744,7 @@
       <c r="I47" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="n">
+      <c r="J47" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K47" s="0" t="n">
@@ -3773,10 +3769,10 @@
         <v>90</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W47" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X47" s="0" t="n">
         <v>20</v>
@@ -3841,10 +3837,10 @@
         <v>120</v>
       </c>
       <c r="V48" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X48" s="0" t="n">
         <v>20</v>
@@ -3909,10 +3905,10 @@
         <v>120</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W49" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X49" s="0" t="n">
         <v>20</v>
@@ -4397,10 +4393,10 @@
         <v>10</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X56" s="0" t="n">
         <v>20</v>
@@ -4669,10 +4665,10 @@
         <v>90</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W60" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X60" s="0" t="n">
         <v>20</v>
@@ -4802,10 +4798,10 @@
         <v>10</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W62" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X62" s="0" t="n">
         <v>20</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -502,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X62" activeCellId="0" sqref="X62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S62" activeCellId="0" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -915,7 +915,7 @@
         <v>40</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>10</v>
@@ -1817,7 +1817,7 @@
         <v>32</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>32</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>10</v>
@@ -1953,7 +1953,7 @@
         <v>32</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>10</v>
@@ -3417,7 +3417,7 @@
         <v>32</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>10</v>
@@ -3627,7 +3627,7 @@
         <v>32</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>10</v>
@@ -4387,7 +4387,7 @@
         <v>32</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="U56" s="0" t="n">
         <v>10</v>
@@ -4792,7 +4792,7 @@
         <v>40</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="U62" s="0" t="n">
         <v>10</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -503,7 +503,7 @@
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S62" activeCellId="0" sqref="S62"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,10 +1060,10 @@
         <v>50</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>35</v>
@@ -1131,13 +1131,13 @@
         <v>50</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>15</v>
@@ -1202,13 +1202,13 @@
         <v>50</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>15</v>
@@ -1273,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>35</v>
@@ -1344,13 +1344,13 @@
         <v>20</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>15</v>
@@ -1418,7 +1418,7 @@
         <v>40</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X13" s="0" t="n">
         <v>35</v>
@@ -2101,10 +2101,10 @@
         <v>50</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X23" s="0" t="n">
         <v>35</v>
@@ -2172,10 +2172,10 @@
         <v>50</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X24" s="0" t="n">
         <v>35</v>
@@ -2243,10 +2243,10 @@
         <v>50</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X25" s="0" t="n">
         <v>35</v>
@@ -2317,7 +2317,7 @@
         <v>40</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X26" s="0" t="n">
         <v>35</v>
@@ -2385,10 +2385,10 @@
         <v>50</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X27" s="0" t="n">
         <v>35</v>
@@ -2456,10 +2456,10 @@
         <v>50</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X28" s="0" t="n">
         <v>35</v>
@@ -2527,10 +2527,10 @@
         <v>20</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X29" s="0" t="n">
         <v>35</v>
@@ -2598,10 +2598,10 @@
         <v>20</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X30" s="0" t="n">
         <v>35</v>
@@ -2672,7 +2672,7 @@
         <v>40</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X31" s="0" t="n">
         <v>35</v>
@@ -2740,10 +2740,10 @@
         <v>20</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X32" s="0" t="n">
         <v>35</v>
@@ -2811,10 +2811,10 @@
         <v>20</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X33" s="0" t="n">
         <v>35</v>
@@ -3494,10 +3494,10 @@
         <v>20</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X43" s="0" t="n">
         <v>35</v>
@@ -3565,10 +3565,10 @@
         <v>50</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X44" s="0" t="n">
         <v>35</v>
@@ -4041,13 +4041,13 @@
         <v>50</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W51" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y51" s="0" t="n">
         <v>15</v>
@@ -4112,10 +4112,10 @@
         <v>50</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X52" s="0" t="n">
         <v>35</v>
@@ -4183,13 +4183,13 @@
         <v>50</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W53" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y53" s="0" t="n">
         <v>15</v>
@@ -4254,10 +4254,10 @@
         <v>20</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X54" s="0" t="n">
         <v>35</v>
@@ -4325,13 +4325,13 @@
         <v>20</v>
       </c>
       <c r="V55" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y55" s="0" t="n">
         <v>15</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="144">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -380,6 +380,78 @@
   </si>
   <si>
     <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла сердечки в воде "Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125/0,225, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
 </sst>
 </file>
@@ -500,10 +572,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F89" activeCellId="0" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4813,6 +4885,1710 @@
         <v>10</v>
       </c>
     </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z65" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z66" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y68" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z68" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y73" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y75" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z75" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>840</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y76" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z76" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y77" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X78" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y78" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z78" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y79" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z79" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X80" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y80" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z80" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X81" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y81" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z81" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X82" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y82" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z82" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X83" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y83" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z83" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X84" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y84" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z84" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T85" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V85" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W85" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X85" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y85" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z85" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T86" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W86" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X86" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y86" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z86" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -574,8 +574,8 @@
   </sheetPr>
   <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F89" activeCellId="0" sqref="F89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E84" activeCellId="0" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4038,6 +4038,9 @@
       <c r="O50" s="0" t="s">
         <v>106</v>
       </c>
+      <c r="R50" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="U50" s="0" t="n">
         <v>120</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>58</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="U57" s="0" t="n">
         <v>120</v>
@@ -4595,7 +4598,7 @@
         <v>106</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="U58" s="0" t="n">
         <v>120</v>
@@ -4663,7 +4666,7 @@
         <v>106</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="U59" s="0" t="n">
         <v>120</v>
@@ -4797,6 +4800,9 @@
       </c>
       <c r="O61" s="0" t="s">
         <v>106</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>600</v>
       </c>
       <c r="U61" s="0" t="n">
         <v>120</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="145">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Дополнительное время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Откачка</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
@@ -572,10 +575,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E84" activeCellId="0" sqref="E84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M40" activeCellId="0" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,31 +670,34 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>200</v>
@@ -709,10 +715,10 @@
         <v>65</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>1020</v>
@@ -734,6 +740,9 @@
       </c>
       <c r="Z2" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,25 +750,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1200</v>
@@ -777,10 +786,10 @@
         <v>65</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>1020</v>
@@ -802,6 +811,9 @@
       </c>
       <c r="Z3" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,25 +821,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>120</v>
@@ -845,10 +857,10 @@
         <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>1020</v>
@@ -870,6 +882,9 @@
       </c>
       <c r="Z4" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,25 +892,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3000</v>
@@ -913,10 +928,10 @@
         <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>1020</v>
@@ -938,6 +953,9 @@
       </c>
       <c r="Z5" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,25 +963,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1000</v>
@@ -981,10 +999,10 @@
         <v>35</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>518</v>
@@ -1007,31 +1025,34 @@
       <c r="Z6" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA6" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>280</v>
@@ -1049,10 +1070,10 @@
         <v>65</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>1020</v>
@@ -1061,7 +1082,7 @@
         <v>120</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>20</v>
@@ -1074,6 +1095,9 @@
       </c>
       <c r="Z7" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,25 +1105,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>100</v>
@@ -1117,10 +1141,10 @@
         <v>31</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>960</v>
@@ -1145,6 +1169,9 @@
       </c>
       <c r="Z8" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,25 +1179,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>125</v>
@@ -1188,10 +1215,10 @@
         <v>31</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>1200</v>
@@ -1216,6 +1243,9 @@
       </c>
       <c r="Z9" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,25 +1253,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>125</v>
@@ -1259,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>1200</v>
@@ -1287,6 +1317,9 @@
       </c>
       <c r="Z10" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,25 +1327,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>100</v>
@@ -1330,10 +1363,10 @@
         <v>31</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>1020</v>
@@ -1359,31 +1392,34 @@
       <c r="Z11" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA11" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>125</v>
@@ -1401,10 +1437,10 @@
         <v>31</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>876</v>
@@ -1429,6 +1465,9 @@
       </c>
       <c r="Z12" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,25 +1475,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>200</v>
@@ -1472,10 +1511,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>840</v>
@@ -1500,6 +1539,9 @@
       </c>
       <c r="Z13" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,25 +1549,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>460</v>
@@ -1543,10 +1585,10 @@
         <v>65</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>1020</v>
@@ -1568,6 +1610,9 @@
       </c>
       <c r="Z14" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,25 +1620,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>460</v>
@@ -1611,10 +1656,10 @@
         <v>65</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>728</v>
@@ -1636,6 +1681,9 @@
       </c>
       <c r="Z15" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,25 +1691,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>200</v>
@@ -1679,10 +1727,10 @@
         <v>65</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>1020</v>
@@ -1705,31 +1753,34 @@
       <c r="Z16" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA16" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>370</v>
@@ -1747,10 +1798,10 @@
         <v>65</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>1020</v>
@@ -1772,6 +1823,9 @@
       </c>
       <c r="Z17" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,25 +1833,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>280</v>
@@ -1815,10 +1869,10 @@
         <v>65</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>1020</v>
@@ -1840,6 +1894,9 @@
       </c>
       <c r="Z18" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,25 +1904,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>120</v>
@@ -1883,10 +1940,10 @@
         <v>65</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>518</v>
@@ -1908,6 +1965,9 @@
       </c>
       <c r="Z19" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,25 +1975,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>120</v>
@@ -1951,10 +2011,10 @@
         <v>65</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>518</v>
@@ -1976,6 +2036,9 @@
       </c>
       <c r="Z20" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,25 +2046,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>120</v>
@@ -2019,10 +2082,10 @@
         <v>35</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>518</v>
@@ -2045,31 +2108,34 @@
       <c r="Z21" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA21" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>125</v>
@@ -2087,10 +2153,10 @@
         <v>31</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>600</v>
@@ -2115,6 +2181,9 @@
       </c>
       <c r="Z22" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,25 +2191,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>125</v>
@@ -2158,10 +2227,10 @@
         <v>25</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>1200</v>
@@ -2186,6 +2255,9 @@
       </c>
       <c r="Z23" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,25 +2265,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>100</v>
@@ -2229,10 +2301,10 @@
         <v>31</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>960</v>
@@ -2257,6 +2329,9 @@
       </c>
       <c r="Z24" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,25 +2339,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>125</v>
@@ -2300,10 +2375,10 @@
         <v>31</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>960</v>
@@ -2328,6 +2403,9 @@
       </c>
       <c r="Z25" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,25 +2413,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>125</v>
@@ -2371,10 +2449,10 @@
         <v>31</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>960</v>
@@ -2400,31 +2478,34 @@
       <c r="Z26" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA26" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>100</v>
@@ -2442,10 +2523,10 @@
         <v>25</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>960</v>
@@ -2470,6 +2551,9 @@
       </c>
       <c r="Z27" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,25 +2561,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>125</v>
@@ -2513,10 +2597,10 @@
         <v>25</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>1200</v>
@@ -2542,31 +2626,34 @@
       <c r="Z28" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA28" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>125</v>
@@ -2584,10 +2671,10 @@
         <v>25</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>876</v>
@@ -2612,6 +2699,9 @@
       </c>
       <c r="Z29" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,25 +2709,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>100</v>
@@ -2655,10 +2745,10 @@
         <v>31</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>702</v>
@@ -2683,6 +2773,9 @@
       </c>
       <c r="Z30" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,25 +2783,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>125</v>
@@ -2726,10 +2819,10 @@
         <v>31</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>876</v>
@@ -2754,6 +2847,9 @@
       </c>
       <c r="Z31" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,25 +2857,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>100</v>
@@ -2797,10 +2893,10 @@
         <v>25</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>702</v>
@@ -2825,6 +2921,9 @@
       </c>
       <c r="Z32" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,25 +2931,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>125</v>
@@ -2868,10 +2967,10 @@
         <v>25</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>876</v>
@@ -2897,31 +2996,34 @@
       <c r="Z33" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA33" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>460</v>
@@ -2939,10 +3041,10 @@
         <v>65</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>728</v>
@@ -2964,6 +3066,9 @@
       </c>
       <c r="Z34" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,25 +3076,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>370</v>
@@ -3007,10 +3112,10 @@
         <v>50</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>1020</v>
@@ -3032,6 +3137,9 @@
       </c>
       <c r="Z35" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,25 +3147,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>280</v>
@@ -3075,10 +3183,10 @@
         <v>45</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R36" s="0" t="n">
         <v>1020</v>
@@ -3100,6 +3208,9 @@
       </c>
       <c r="Z36" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,25 +3218,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>280</v>
@@ -3143,10 +3254,10 @@
         <v>65</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>1020</v>
@@ -3168,6 +3279,9 @@
       </c>
       <c r="Z37" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,25 +3289,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>120</v>
@@ -3211,10 +3325,10 @@
         <v>45</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>1020</v>
@@ -3236,6 +3350,9 @@
       </c>
       <c r="Z38" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,25 +3360,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>200</v>
@@ -3279,10 +3396,10 @@
         <v>50</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R39" s="0" t="n">
         <v>1020</v>
@@ -3304,6 +3421,9 @@
       </c>
       <c r="Z39" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,25 +3431,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>280</v>
@@ -3347,10 +3467,10 @@
         <v>50</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>1020</v>
@@ -3372,6 +3492,9 @@
       </c>
       <c r="Z40" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,25 +3502,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>120</v>
@@ -3415,10 +3538,10 @@
         <v>25</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>1020</v>
@@ -3440,6 +3563,9 @@
       </c>
       <c r="Z41" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,25 +3573,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>120</v>
@@ -3483,10 +3609,10 @@
         <v>50</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R42" s="0" t="n">
         <v>518</v>
@@ -3508,6 +3634,9 @@
       </c>
       <c r="Z42" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,25 +3644,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>100</v>
@@ -3551,10 +3680,10 @@
         <v>31</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R43" s="0" t="n">
         <v>1020</v>
@@ -3579,6 +3708,9 @@
       </c>
       <c r="Z43" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,25 +3718,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>100</v>
@@ -3622,10 +3754,10 @@
         <v>31</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R44" s="0" t="n">
         <v>960</v>
@@ -3650,6 +3782,9 @@
       </c>
       <c r="Z44" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,25 +3792,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>120</v>
@@ -3693,10 +3828,10 @@
         <v>65</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R45" s="0" t="n">
         <v>518</v>
@@ -3718,6 +3853,9 @@
       </c>
       <c r="Z45" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,25 +3863,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>280</v>
@@ -3761,10 +3899,10 @@
         <v>65</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R46" s="0" t="n">
         <v>1020</v>
@@ -3786,6 +3924,9 @@
       </c>
       <c r="Z46" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,25 +3934,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>200</v>
@@ -3829,10 +3970,10 @@
         <v>1020</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R47" s="0" t="n">
         <v>1020</v>
@@ -3854,6 +3995,9 @@
       </c>
       <c r="Z47" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,25 +4005,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>1200</v>
@@ -3897,10 +4041,10 @@
         <v>65</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R48" s="0" t="n">
         <v>1020</v>
@@ -3922,6 +4066,9 @@
       </c>
       <c r="Z48" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,25 +4076,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>460</v>
@@ -3965,10 +4112,10 @@
         <v>65</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R49" s="0" t="n">
         <v>1020</v>
@@ -3990,6 +4137,9 @@
       </c>
       <c r="Z49" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,25 +4147,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>700</v>
@@ -4033,10 +4183,10 @@
         <v>120</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R50" s="0" t="n">
         <v>600</v>
@@ -4058,6 +4208,9 @@
       </c>
       <c r="Z50" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,25 +4218,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>125</v>
@@ -4101,10 +4254,10 @@
         <v>25</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>1000</v>
@@ -4129,6 +4282,9 @@
       </c>
       <c r="Z51" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,25 +4292,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>100</v>
@@ -4172,10 +4328,10 @@
         <v>31</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R52" s="0" t="n">
         <v>960</v>
@@ -4200,6 +4356,9 @@
       </c>
       <c r="Z52" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,25 +4366,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>125</v>
@@ -4243,10 +4402,10 @@
         <v>31</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R53" s="0" t="n">
         <v>1200</v>
@@ -4271,6 +4430,9 @@
       </c>
       <c r="Z53" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA53" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,25 +4440,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>100</v>
@@ -4314,10 +4476,10 @@
         <v>31</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R54" s="0" t="n">
         <v>960</v>
@@ -4342,6 +4504,9 @@
       </c>
       <c r="Z54" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,25 +4514,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>125</v>
@@ -4385,10 +4550,10 @@
         <v>31</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R55" s="0" t="n">
         <v>876</v>
@@ -4413,6 +4578,9 @@
       </c>
       <c r="Z55" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,25 +4588,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>120</v>
@@ -4456,10 +4624,10 @@
         <v>50</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R56" s="0" t="n">
         <v>518</v>
@@ -4481,6 +4649,9 @@
       </c>
       <c r="Z56" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,25 +4659,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>260</v>
@@ -4524,10 +4695,10 @@
         <v>120</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>600</v>
@@ -4549,6 +4720,9 @@
       </c>
       <c r="Z57" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,25 +4730,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>700</v>
@@ -4592,10 +4766,10 @@
         <v>120</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R58" s="0" t="n">
         <v>600</v>
@@ -4617,6 +4791,9 @@
       </c>
       <c r="Z58" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,25 +4801,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>700</v>
@@ -4660,10 +4837,10 @@
         <v>120</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R59" s="0" t="n">
         <v>600</v>
@@ -4685,6 +4862,9 @@
       </c>
       <c r="Z59" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,25 +4872,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>200</v>
@@ -4728,10 +4908,10 @@
         <v>50</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R60" s="0" t="n">
         <v>1020</v>
@@ -4740,7 +4920,7 @@
         <v>90</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W60" s="0" t="n">
         <v>20</v>
@@ -4753,6 +4933,9 @@
       </c>
       <c r="Z60" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA60" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,25 +4943,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>700</v>
@@ -4796,10 +4979,10 @@
         <v>120</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R61" s="0" t="n">
         <v>600</v>
@@ -4821,6 +5004,9 @@
       </c>
       <c r="Z61" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,25 +5014,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>1000</v>
@@ -4864,10 +5050,10 @@
         <v>35</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R62" s="0" t="n">
         <v>518</v>
@@ -4889,6 +5075,9 @@
       </c>
       <c r="Z62" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,25 +5085,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>125</v>
@@ -4932,10 +5121,10 @@
         <v>31</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R63" s="0" t="n">
         <v>960</v>
@@ -4960,6 +5149,9 @@
       </c>
       <c r="Z63" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,25 +5159,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>125</v>
@@ -5003,10 +5195,10 @@
         <v>25</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R64" s="0" t="n">
         <v>1000</v>
@@ -5031,6 +5223,9 @@
       </c>
       <c r="Z64" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,25 +5233,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>125</v>
@@ -5074,10 +5269,10 @@
         <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R65" s="0" t="n">
         <v>960</v>
@@ -5102,6 +5297,9 @@
       </c>
       <c r="Z65" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,25 +5307,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>100</v>
@@ -5145,10 +5343,10 @@
         <v>31</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R66" s="0" t="n">
         <v>960</v>
@@ -5173,6 +5371,9 @@
       </c>
       <c r="Z66" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,25 +5381,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>100</v>
@@ -5216,10 +5417,10 @@
         <v>25</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R67" s="0" t="n">
         <v>960</v>
@@ -5244,6 +5445,9 @@
       </c>
       <c r="Z67" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,25 +5455,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>125</v>
@@ -5287,10 +5491,10 @@
         <v>25</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R68" s="0" t="n">
         <v>1200</v>
@@ -5315,6 +5519,9 @@
       </c>
       <c r="Z68" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA68" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5322,25 +5529,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>125</v>
@@ -5358,10 +5565,10 @@
         <v>25</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R69" s="0" t="n">
         <v>1200</v>
@@ -5386,6 +5593,9 @@
       </c>
       <c r="Z69" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,25 +5603,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>100</v>
@@ -5429,10 +5639,10 @@
         <v>31</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R70" s="0" t="n">
         <v>960</v>
@@ -5457,6 +5667,9 @@
       </c>
       <c r="Z70" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,25 +5677,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>100</v>
@@ -5500,10 +5713,10 @@
         <v>31</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R71" s="0" t="n">
         <v>960</v>
@@ -5528,6 +5741,9 @@
       </c>
       <c r="Z71" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,25 +5751,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>100</v>
@@ -5571,10 +5787,10 @@
         <v>31</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R72" s="0" t="n">
         <v>960</v>
@@ -5599,6 +5815,9 @@
       </c>
       <c r="Z72" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,25 +5825,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>125</v>
@@ -5642,10 +5861,10 @@
         <v>31</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R73" s="0" t="n">
         <v>1200</v>
@@ -5670,6 +5889,9 @@
       </c>
       <c r="Z73" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,25 +5899,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>125</v>
@@ -5713,10 +5935,10 @@
         <v>25</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R74" s="0" t="n">
         <v>1200</v>
@@ -5741,6 +5963,9 @@
       </c>
       <c r="Z74" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,25 +5973,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>125</v>
@@ -5784,10 +6009,10 @@
         <v>31</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R75" s="0" t="n">
         <v>600</v>
@@ -5812,6 +6037,9 @@
       </c>
       <c r="Z75" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,25 +6047,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>200</v>
@@ -5855,10 +6083,10 @@
         <v>31</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R76" s="0" t="n">
         <v>840</v>
@@ -5883,6 +6111,9 @@
       </c>
       <c r="Z76" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA76" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,25 +6121,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>125</v>
@@ -5926,10 +6157,10 @@
         <v>31</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R77" s="0" t="n">
         <v>876</v>
@@ -5954,6 +6185,9 @@
       </c>
       <c r="Z77" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA77" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5961,25 +6195,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>125</v>
@@ -5997,10 +6231,10 @@
         <v>31</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R78" s="0" t="n">
         <v>876</v>
@@ -6025,6 +6259,9 @@
       </c>
       <c r="Z78" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA78" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,25 +6269,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>100</v>
@@ -6068,10 +6305,10 @@
         <v>31</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R79" s="0" t="n">
         <v>702</v>
@@ -6096,6 +6333,9 @@
       </c>
       <c r="Z79" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA79" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,25 +6343,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>100</v>
@@ -6139,10 +6379,10 @@
         <v>31</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R80" s="0" t="n">
         <v>1020</v>
@@ -6167,6 +6407,9 @@
       </c>
       <c r="Z80" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA80" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,25 +6417,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>125</v>
@@ -6210,10 +6453,10 @@
         <v>25</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R81" s="0" t="n">
         <v>876</v>
@@ -6238,6 +6481,9 @@
       </c>
       <c r="Z81" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA81" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,25 +6491,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>100</v>
@@ -6281,10 +6527,10 @@
         <v>31</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R82" s="0" t="n">
         <v>960</v>
@@ -6309,6 +6555,9 @@
       </c>
       <c r="Z82" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,25 +6565,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>125</v>
@@ -6352,10 +6601,10 @@
         <v>31</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R83" s="0" t="n">
         <v>876</v>
@@ -6380,6 +6629,9 @@
       </c>
       <c r="Z83" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA83" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,25 +6639,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>100</v>
@@ -6423,10 +6675,10 @@
         <v>31</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R84" s="0" t="n">
         <v>1020</v>
@@ -6451,6 +6703,9 @@
       </c>
       <c r="Z84" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA84" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,25 +6713,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>100</v>
@@ -6494,10 +6749,10 @@
         <v>25</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R85" s="0" t="n">
         <v>702</v>
@@ -6522,6 +6777,9 @@
       </c>
       <c r="Z85" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA85" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,25 +6787,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>125</v>
@@ -6565,10 +6823,10 @@
         <v>25</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R86" s="0" t="n">
         <v>876</v>
@@ -6593,6 +6851,9 @@
       </c>
       <c r="Z86" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AA86" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="121">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Фиор Ди Латте</t>
@@ -166,268 +166,196 @@
     <t xml:space="preserve">Вода</t>
   </si>
   <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45 %, 0,46 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САККАРДО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фермерская коллекция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бонджорно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВкусВилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умалат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маркет Перекресток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красная птица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ручная работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваш выбор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orecchio Oro</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВкусВилл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каждый день</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла сердечки в воде "Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малый Комет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125/0,225, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Чильеджина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">малый Комет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45 %, 0,46 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САККАРДО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фермерская коллекция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бонджорно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваш выбор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красная птица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro Chef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Умалат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маркет Перекресток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ручная работа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каждый день</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла сердечки в воде "Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125/0,225, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
@@ -575,10 +503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M40" activeCellId="0" sqref="M40"/>
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1111,10 +1039,10 @@
         <v>3.3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>46</v>
@@ -1123,16 +1051,16 @@
         <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>1000</v>
@@ -1147,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>25</v>
@@ -1156,13 +1084,13 @@
         <v>50</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>15</v>
@@ -1179,64 +1107,61 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>15</v>
@@ -1253,64 +1178,61 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>50</v>
+        <v>728</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>15</v>
@@ -1327,10 +1249,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>27</v>
@@ -1339,52 +1261,49 @@
         <v>28</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>20</v>
+      <c r="U11" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>15</v>
@@ -1401,64 +1320,61 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="I12" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>15</v>
@@ -1478,7 +1394,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>27</v>
@@ -1487,52 +1403,49 @@
         <v>36</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>840</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y13" s="0" t="n">
         <v>15</v>
@@ -1549,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
@@ -1558,7 +1471,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>29</v>
@@ -1567,16 +1480,16 @@
         <v>30</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>850</v>
@@ -1591,10 +1504,10 @@
         <v>33</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>40</v>
@@ -1620,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
@@ -1638,16 +1551,16 @@
         <v>30</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>850</v>
@@ -1659,13 +1572,13 @@
         <v>32</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>728</v>
+        <v>518</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>40</v>
@@ -1691,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
@@ -1700,7 +1613,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>29</v>
@@ -1709,22 +1622,22 @@
         <v>30</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>32</v>
@@ -1733,10 +1646,10 @@
         <v>33</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>40</v>
@@ -1762,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
@@ -1780,16 +1693,16 @@
         <v>30</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>850</v>
@@ -1801,10 +1714,10 @@
         <v>32</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>1020</v>
+        <v>728</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>120</v>
@@ -1833,7 +1746,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2.7</v>
@@ -1845,28 +1758,28 @@
         <v>36</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>32</v>
@@ -1904,7 +1817,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.7</v>
@@ -1916,28 +1829,28 @@
         <v>36</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>32</v>
@@ -1946,10 +1859,10 @@
         <v>33</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V19" s="0" t="n">
         <v>40</v>
@@ -1975,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2.7</v>
@@ -1984,25 +1897,25 @@
         <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>67</v>
+      <c r="H20" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>850</v>
@@ -2017,10 +1930,10 @@
         <v>33</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>40</v>
@@ -2046,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2.7</v>
@@ -2058,13 +1971,13 @@
         <v>36</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>120</v>
@@ -2073,25 +1986,25 @@
         <v>10</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>40</v>
@@ -2117,10 +2030,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>27</v>
@@ -2129,52 +2042,49 @@
         <v>36</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>30</v>
+        <v>1020</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>40</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="0" t="n">
         <v>15</v>
@@ -2191,64 +2101,61 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W23" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y23" s="0" t="n">
         <v>15</v>
@@ -2265,64 +2172,61 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="Q24" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R24" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>15</v>
@@ -2339,64 +2243,61 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S25" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T25" s="0" t="n">
-        <v>50</v>
+        <v>518</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>15</v>
@@ -2413,10 +2314,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>27</v>
@@ -2425,52 +2326,49 @@
         <v>36</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>50</v>
+        <v>518</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V26" s="0" t="n">
         <v>40</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>15</v>
@@ -2487,10 +2385,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>27</v>
@@ -2499,52 +2397,49 @@
         <v>28</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W27" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>15</v>
@@ -2561,10 +2456,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>27</v>
@@ -2573,52 +2468,49 @@
         <v>28</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>25</v>
+        <v>1020</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W28" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="0" t="n">
         <v>15</v>
@@ -2638,7 +2530,7 @@
         <v>78</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>27</v>
@@ -2647,52 +2539,49 @@
         <v>28</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W29" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="0" t="n">
         <v>15</v>
@@ -2712,7 +2601,7 @@
         <v>79</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>27</v>
@@ -2721,52 +2610,49 @@
         <v>28</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>8</v>
+        <v>460</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="S30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T30" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="0" t="n">
         <v>15</v>
@@ -2795,49 +2681,46 @@
         <v>36</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>20</v>
+        <v>600</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V31" s="0" t="n">
         <v>40</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X31" s="0" t="n">
         <v>35</v>
@@ -2857,64 +2740,61 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>20</v>
+        <v>518</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="0" t="n">
         <v>15</v>
@@ -2931,61 +2811,58 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S33" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T33" s="0" t="n">
-        <v>20</v>
+        <v>600</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X33" s="0" t="n">
         <v>35</v>
@@ -3005,49 +2882,49 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>728</v>
+        <v>600</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>120</v>
@@ -3056,10 +2933,10 @@
         <v>40</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y34" s="0" t="n">
         <v>15</v>
@@ -3076,10 +2953,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>27</v>
@@ -3088,37 +2965,37 @@
         <v>36</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U35" s="0" t="n">
         <v>120</v>
@@ -3127,10 +3004,10 @@
         <v>40</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y35" s="0" t="n">
         <v>15</v>
@@ -3153,34 +3030,34 @@
         <v>2.7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>32</v>
@@ -3192,10 +3069,10 @@
         <v>1020</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W36" s="0" t="n">
         <v>20</v>
@@ -3221,46 +3098,46 @@
         <v>89</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>90</v>
+      <c r="H37" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>120</v>
@@ -3269,10 +3146,10 @@
         <v>40</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y37" s="0" t="n">
         <v>15</v>
@@ -3289,7 +3166,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2.7</v>
@@ -3301,40 +3178,40 @@
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>1020</v>
+        <v>41</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>288</v>
+        <v>518</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V38" s="0" t="n">
         <v>40</v>
@@ -3360,10 +3237,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>27</v>
@@ -3372,49 +3249,52 @@
         <v>36</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M39" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T39" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R39" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="V39" s="0" t="n">
         <v>40</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>15</v>
@@ -3431,61 +3311,64 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M40" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T40" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N40" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R40" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="V40" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W40" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y40" s="0" t="n">
         <v>15</v>
@@ -3502,61 +3385,64 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q41" s="0" t="n">
-        <v>1020</v>
-      </c>
       <c r="R41" s="0" t="n">
-        <v>288</v>
+        <v>960</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W41" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y41" s="0" t="n">
         <v>15</v>
@@ -3573,61 +3459,64 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M42" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T42" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N42" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R42" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U42" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V42" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W42" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y42" s="0" t="n">
         <v>15</v>
@@ -3644,7 +3533,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3.3</v>
@@ -3656,28 +3545,28 @@
         <v>28</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>32</v>
@@ -3686,13 +3575,13 @@
         <v>39</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="S43" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V43" s="0" t="n">
         <v>45</v>
@@ -3718,7 +3607,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3.3</v>
@@ -3736,22 +3625,22 @@
         <v>47</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>32</v>
@@ -3760,7 +3649,7 @@
         <v>39</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>25</v>
@@ -3792,61 +3681,64 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>10</v>
+        <v>1200</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W45" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y45" s="0" t="n">
         <v>15</v>
@@ -3863,10 +3755,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>27</v>
@@ -3875,49 +3767,52 @@
         <v>28</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W46" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y46" s="0" t="n">
         <v>15</v>
@@ -3937,7 +3832,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>27</v>
@@ -3946,49 +3841,52 @@
         <v>28</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U47" s="0" t="n">
-        <v>90</v>
+        <v>960</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W47" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X47" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y47" s="0" t="n">
         <v>15</v>
@@ -4005,10 +3903,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>27</v>
@@ -4017,49 +3915,52 @@
         <v>28</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V48" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W48" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X48" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y48" s="0" t="n">
         <v>15</v>
@@ -4076,61 +3977,64 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>120</v>
+        <v>1200</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W49" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X49" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y49" s="0" t="n">
         <v>15</v>
@@ -4147,61 +4051,64 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G50" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X50" s="0" t="n">
         <v>30</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="R50" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U50" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V50" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W50" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="X50" s="0" t="n">
-        <v>35</v>
       </c>
       <c r="Y50" s="0" t="n">
         <v>15</v>
@@ -4218,13 +4125,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>36</v>
@@ -4245,13 +4152,13 @@
         <v>8</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>32</v>
@@ -4260,22 +4167,22 @@
         <v>39</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W51" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y51" s="0" t="n">
         <v>15</v>
@@ -4292,16 +4199,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>46</v>
@@ -4310,16 +4217,16 @@
         <v>47</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>1000</v>
@@ -4331,10 +4238,10 @@
         <v>32</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="S52" s="0" t="n">
         <v>25</v>
@@ -4343,10 +4250,10 @@
         <v>50</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X52" s="0" t="n">
         <v>35</v>
@@ -4366,25 +4273,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>125</v>
@@ -4393,7 +4300,7 @@
         <v>8</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>1000</v>
@@ -4408,22 +4315,22 @@
         <v>39</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>1200</v>
+        <v>876</v>
       </c>
       <c r="S53" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W53" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y53" s="0" t="n">
         <v>15</v>
@@ -4446,25 +4353,25 @@
         <v>3.3</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>8</v>
@@ -4482,7 +4389,7 @@
         <v>39</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>25</v>
@@ -4491,13 +4398,13 @@
         <v>20</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="W54" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="0" t="n">
         <v>15</v>
@@ -4520,22 +4427,22 @@
         <v>3.3</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>8</v>
@@ -4556,7 +4463,7 @@
         <v>39</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>876</v>
+        <v>702</v>
       </c>
       <c r="S55" s="0" t="n">
         <v>25</v>
@@ -4565,13 +4472,13 @@
         <v>20</v>
       </c>
       <c r="V55" s="0" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="W55" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y55" s="0" t="n">
         <v>15</v>
@@ -4591,58 +4498,61 @@
         <v>114</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U56" s="0" t="n">
-        <v>10</v>
+        <v>1020</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W56" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y56" s="0" t="n">
         <v>15</v>
@@ -4662,55 +4572,58 @@
         <v>115</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="J57" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K57" s="0" t="n">
-        <v>260</v>
-      </c>
       <c r="L57" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U57" s="0" t="n">
-        <v>120</v>
+        <v>876</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X57" s="0" t="n">
         <v>35</v>
@@ -4733,55 +4646,58 @@
         <v>116</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>700</v>
+        <v>8</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U58" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W58" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X58" s="0" t="n">
         <v>35</v>
@@ -4804,58 +4720,61 @@
         <v>117</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G59" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X59" s="0" t="n">
         <v>30</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="R59" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U59" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V59" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W59" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="X59" s="0" t="n">
-        <v>35</v>
       </c>
       <c r="Y59" s="0" t="n">
         <v>15</v>
@@ -4875,58 +4794,61 @@
         <v>118</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R60" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U60" s="0" t="n">
-        <v>90</v>
+      <c r="S60" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="W60" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X60" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y60" s="0" t="n">
         <v>15</v>
@@ -4946,55 +4868,58 @@
         <v>119</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>700</v>
+        <v>8</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M61" s="0" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N61" s="0" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U61" s="0" t="n">
-        <v>120</v>
+        <v>702</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="V61" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W61" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X61" s="0" t="n">
         <v>35</v>
@@ -5017,59 +4942,62 @@
         <v>120</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I62" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L62" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="J62" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L62" s="0" t="n">
-        <v>850</v>
-      </c>
       <c r="M62" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X62" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N62" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="R62" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V62" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X62" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Y62" s="0" t="n">
         <v>15</v>
       </c>
@@ -5080,1782 +5008,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L63" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M63" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R63" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T63" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V63" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W63" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X63" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y63" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z63" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA63" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N64" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R64" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S64" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T64" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V64" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="W64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X64" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z64" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA64" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L65" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M65" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N65" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R65" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S65" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T65" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V65" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X65" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y65" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z65" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA65" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L66" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M66" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R66" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S66" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T66" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V66" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X66" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y66" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA66" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J67" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K67" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L67" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M67" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N67" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R67" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S67" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T67" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V67" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X67" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y67" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z67" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA67" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K68" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L68" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M68" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N68" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R68" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S68" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T68" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V68" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W68" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X68" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z68" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA68" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L69" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M69" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N69" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R69" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S69" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T69" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V69" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X69" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y69" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA69" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L70" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M70" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N70" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R70" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S70" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T70" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V70" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X70" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y70" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z70" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA70" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M71" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N71" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R71" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S71" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T71" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V71" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA71" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I72" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K72" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M72" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N72" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R72" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S72" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T72" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V72" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X72" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y72" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA72" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L73" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M73" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R73" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S73" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T73" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V73" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="W73" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X73" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y73" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z73" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA73" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L74" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M74" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N74" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O74" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R74" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S74" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T74" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V74" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="W74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X74" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y74" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z74" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA74" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="L75" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M75" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N75" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R75" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S75" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T75" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="V75" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W75" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="X75" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y75" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z75" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA75" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L76" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M76" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N76" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O76" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="R76" s="0" t="n">
-        <v>840</v>
-      </c>
-      <c r="S76" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T76" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V76" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W76" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X76" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y76" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z76" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA76" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L77" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N77" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R77" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S77" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V77" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W77" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X77" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y77" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z77" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA77" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L78" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M78" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N78" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R78" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S78" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T78" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V78" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="W78" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X78" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y78" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z78" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA78" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L79" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M79" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R79" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="S79" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V79" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X79" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y79" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z79" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA79" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J80" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L80" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M80" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R80" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="S80" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T80" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V80" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W80" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X80" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y80" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z80" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA80" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J81" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L81" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M81" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N81" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O81" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R81" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S81" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T81" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V81" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W81" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X81" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y81" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z81" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA81" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J82" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L82" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O82" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R82" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S82" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T82" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V82" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W82" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X82" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y82" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z82" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA82" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J83" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L83" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M83" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N83" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O83" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R83" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S83" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T83" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V83" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="W83" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X83" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y83" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z83" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA83" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I84" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J84" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L84" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M84" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N84" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R84" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="S84" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T84" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V84" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W84" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X84" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y84" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z84" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA84" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L85" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M85" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N85" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O85" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R85" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="S85" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T85" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V85" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W85" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X85" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y85" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z85" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA85" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I86" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J86" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L86" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M86" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N86" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O86" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R86" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S86" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T86" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V86" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W86" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X86" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y86" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z86" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA86" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2717,7 +2717,7 @@
         <v>120</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W31" s="0" t="n">
         <v>35</v>
@@ -2859,7 +2859,7 @@
         <v>120</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>35</v>
@@ -2930,7 +2930,7 @@
         <v>120</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>35</v>
@@ -3001,7 +3001,7 @@
         <v>120</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W35" s="0" t="n">
         <v>35</v>
@@ -3143,7 +3143,7 @@
         <v>120</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>35</v>
@@ -3288,7 +3288,7 @@
         <v>50</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W39" s="0" t="n">
         <v>25</v>
@@ -3436,7 +3436,7 @@
         <v>50</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W41" s="0" t="n">
         <v>20</v>
@@ -3510,7 +3510,7 @@
         <v>50</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W42" s="0" t="n">
         <v>20</v>
@@ -3584,7 +3584,7 @@
         <v>50</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W43" s="0" t="n">
         <v>20</v>
@@ -3658,7 +3658,7 @@
         <v>50</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W44" s="0" t="n">
         <v>20</v>
@@ -3732,7 +3732,7 @@
         <v>50</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W45" s="0" t="n">
         <v>20</v>
@@ -3806,7 +3806,7 @@
         <v>50</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W46" s="0" t="n">
         <v>20</v>
@@ -3880,7 +3880,7 @@
         <v>50</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W47" s="0" t="n">
         <v>20</v>
@@ -3954,7 +3954,7 @@
         <v>50</v>
       </c>
       <c r="V48" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W48" s="0" t="n">
         <v>20</v>
@@ -4250,7 +4250,7 @@
         <v>50</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W52" s="0" t="n">
         <v>25</v>
@@ -4324,7 +4324,7 @@
         <v>20</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W53" s="0" t="n">
         <v>25</v>
@@ -4472,7 +4472,7 @@
         <v>20</v>
       </c>
       <c r="V55" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W55" s="0" t="n">
         <v>20</v>
@@ -4546,7 +4546,7 @@
         <v>20</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W56" s="0" t="n">
         <v>20</v>
@@ -4620,7 +4620,7 @@
         <v>20</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W57" s="0" t="n">
         <v>20</v>
@@ -4694,7 +4694,7 @@
         <v>20</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W58" s="0" t="n">
         <v>20</v>
@@ -4842,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W60" s="0" t="n">
         <v>20</v>
@@ -4916,7 +4916,7 @@
         <v>20</v>
       </c>
       <c r="V61" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W61" s="0" t="n">
         <v>20</v>
@@ -4990,7 +4990,7 @@
         <v>20</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W62" s="0" t="n">
         <v>20</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="125">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -383,6 +383,18 @@
   </si>
   <si>
     <t xml:space="preserve">Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
   </si>
 </sst>
 </file>
@@ -505,8 +517,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5005,6 +5017,296 @@
         <v>10</v>
       </c>
       <c r="AA62" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z65" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z66" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA66" s="0" t="n">
         <v>5</v>
       </c>
     </row>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -404,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -434,6 +434,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,7 +491,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,6 +501,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,8 +527,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q34" activeCellId="0" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2547,8 +2557,8 @@
       <c r="D29" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>28</v>
+      <c r="E29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>29</v>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="126">
+  <si>
+    <t xml:space="preserve">Unnamed: 0</t>
+  </si>
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -404,7 +407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -434,12 +437,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,21 +488,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -525,26 +514,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q34" activeCellId="0" sqref="Q34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S33" activeCellId="0" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="7" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,19 +604,22 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>28</v>
@@ -649,64 +633,67 @@
       <c r="H2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="P2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="V2" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W2" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>28</v>
@@ -720,422 +707,440 @@
       <c r="H3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="P3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V3" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W3" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="V4" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W4" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W5" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V6" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="P7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="W7" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X7" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M8" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>32</v>
+      <c r="N8" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="W8" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X8" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>28</v>
@@ -1149,135 +1154,141 @@
       <c r="H9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="P9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V9" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W9" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N10" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>728</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V10" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W10" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X10" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>28</v>
@@ -1289,66 +1300,69 @@
         <v>30</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="P11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="V11" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W11" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>28</v>
@@ -1360,350 +1374,365 @@
         <v>30</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O12" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="P12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W12" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="P13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W13" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X13" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="K14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="P14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="U14" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V14" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="K15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O15" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="P15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="U15" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V15" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X15" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="K16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N16" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="P16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="U16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V16" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z16" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA16" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>28</v>
@@ -1715,705 +1744,735 @@
         <v>30</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="J17" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="K17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N17" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>728</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V17" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W17" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA17" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N18" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="P18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V18" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W18" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X18" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z18" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA18" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N19" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="P19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V19" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W19" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA19" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E20" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N20" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="P20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V20" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W20" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z20" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA20" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="0" t="n">
+      <c r="H22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M22" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="0" t="n">
+      <c r="N22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R21" s="0" t="n">
-        <v>288</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="V22" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W22" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z22" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA22" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N23" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O23" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="P23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V23" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W23" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X23" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA23" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="O24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="V24" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W24" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X24" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z24" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA24" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N25" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O25" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="P25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="U25" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V25" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z25" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA25" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="J26" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="K26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N26" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O26" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="P26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="U26" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V26" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA26" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>28</v>
@@ -2425,66 +2484,69 @@
         <v>30</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="P27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V27" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W27" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X27" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z27" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA27" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>28</v>
@@ -2496,137 +2558,143 @@
         <v>30</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="N28" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O28" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="P28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="V28" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W28" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X28" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA28" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>36</v>
+      <c r="E29" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O29" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="P29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V29" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W29" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X29" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z29" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA29" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>28</v>
@@ -2640,2408 +2708,2507 @@
       <c r="H30" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N30" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O30" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="P30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V30" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W30" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X30" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z30" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA30" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="N31" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O31" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="R31" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>35</v>
       </c>
       <c r="X31" s="0" t="n">
         <v>35</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z31" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA31" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="0" t="n">
+      <c r="M32" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N33" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M32" s="0" t="n">
+      <c r="O33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W33" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V32" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y32" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA32" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>260</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>260</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V33" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>35</v>
       </c>
       <c r="X33" s="0" t="n">
         <v>35</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z33" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA33" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E34" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="N34" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O34" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="R34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="U34" s="0" t="n">
+      <c r="V34" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="W34" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>35</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>35</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z34" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA34" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E35" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="N35" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="N35" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O35" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="R35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="S35" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="U35" s="0" t="n">
+      <c r="V35" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="W35" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="W35" s="0" t="n">
-        <v>35</v>
       </c>
       <c r="X35" s="0" t="n">
         <v>35</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z35" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA35" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E36" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="N36" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N36" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O36" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="P36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="V36" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="W36" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="W36" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X36" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z36" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA36" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E37" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="N37" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O37" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="R37" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="S37" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="U37" s="0" t="n">
+      <c r="V37" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="W37" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>35</v>
       </c>
       <c r="X37" s="0" t="n">
         <v>35</v>
       </c>
       <c r="Y37" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z37" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA37" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E38" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>37</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="K38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="L38" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="M38" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="N38" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N38" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O38" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="R38" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="U38" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="V38" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X38" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y38" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z38" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA38" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E39" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="L39" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="M39" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M39" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>32</v>
+      <c r="N39" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R39" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S39" s="0" t="n">
+      <c r="T39" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T39" s="0" t="n">
+      <c r="U39" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="W39" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W39" s="0" t="n">
+      <c r="X39" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="X39" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="Y39" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z39" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA39" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="0" t="n">
+      <c r="B40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E40" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="L40" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="M40" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="N40" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N40" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O40" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R40" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S40" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="S40" s="0" t="n">
+      <c r="T40" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="U40" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="W40" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="W40" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X40" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z40" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA40" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E41" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="L41" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="M41" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M41" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>32</v>
+      <c r="N41" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R41" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S41" s="0" t="n">
+      <c r="T41" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T41" s="0" t="n">
+      <c r="U41" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V41" s="0" t="n">
+      <c r="W41" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W41" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X41" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z41" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA41" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E42" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="K42" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="L42" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="M42" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M42" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N42" s="0" t="s">
-        <v>32</v>
+      <c r="N42" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R42" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S42" s="0" t="n">
+      <c r="T42" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T42" s="0" t="n">
+      <c r="U42" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V42" s="0" t="n">
+      <c r="W42" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W42" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X42" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y42" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z42" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA42" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E43" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="K43" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="L43" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="M43" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M43" s="0" t="n">
+      <c r="N43" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N43" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O43" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R43" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S43" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S43" s="0" t="n">
+      <c r="T43" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T43" s="0" t="n">
+      <c r="U43" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V43" s="0" t="n">
+      <c r="W43" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W43" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X43" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z43" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA43" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="0" t="n">
+      <c r="B44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E44" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="K44" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="L44" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="M44" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="N44" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N44" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O44" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R44" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="S44" s="0" t="n">
+      <c r="T44" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T44" s="0" t="n">
+      <c r="U44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V44" s="0" t="n">
+      <c r="W44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W44" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X44" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y44" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z44" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA44" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="B45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E45" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="K45" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="L45" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="M45" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="N45" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N45" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O45" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R45" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S45" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="S45" s="0" t="n">
+      <c r="T45" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T45" s="0" t="n">
+      <c r="U45" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V45" s="0" t="n">
+      <c r="W45" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W45" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X45" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y45" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z45" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA45" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="0" t="n">
+      <c r="B46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E46" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H46" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="K46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L46" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J46" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" s="0" t="n">
+      <c r="M46" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M46" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>32</v>
+      <c r="N46" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R46" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S46" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S46" s="0" t="n">
+      <c r="T46" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T46" s="0" t="n">
+      <c r="U46" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V46" s="0" t="n">
+      <c r="W46" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W46" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X46" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y46" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z46" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA46" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB46" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="0" t="n">
+      <c r="B47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E47" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="K47" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="L47" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="M47" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M47" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>32</v>
+      <c r="N47" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R47" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S47" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S47" s="0" t="n">
+      <c r="T47" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T47" s="0" t="n">
+      <c r="U47" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V47" s="0" t="n">
+      <c r="W47" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W47" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X47" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y47" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z47" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA47" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="0" t="n">
+      <c r="B48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E48" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="I48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="K48" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="L48" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="M48" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M48" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>32</v>
+      <c r="N48" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R48" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S48" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S48" s="0" t="n">
+      <c r="T48" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T48" s="0" t="n">
+      <c r="U48" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V48" s="0" t="n">
+      <c r="W48" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W48" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X48" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y48" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z48" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA48" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="0" t="n">
+      <c r="B49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E49" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="K49" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="L49" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="M49" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M49" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N49" s="0" t="s">
-        <v>32</v>
+      <c r="N49" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R49" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="S49" s="0" t="n">
+      <c r="T49" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T49" s="0" t="n">
+      <c r="U49" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V49" s="0" t="n">
+      <c r="W49" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="W49" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X49" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y49" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z49" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA49" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="B50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E50" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H50" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W50" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="I50" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R50" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S50" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T50" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="V50" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="W50" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X50" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y50" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z50" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA50" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="0" t="n">
+      <c r="B51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E51" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="K51" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="L51" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M51" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N51" s="0" t="s">
-        <v>32</v>
+      <c r="N51" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R51" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S51" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="S51" s="0" t="n">
+      <c r="T51" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T51" s="0" t="n">
+      <c r="U51" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="V51" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W51" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X51" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="X51" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="Y51" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z51" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA51" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="0" t="n">
+      <c r="B52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E52" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="K52" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="L52" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="M52" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M52" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>32</v>
+      <c r="N52" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="R52" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S52" s="0" t="n">
         <v>840</v>
       </c>
-      <c r="S52" s="0" t="n">
+      <c r="T52" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T52" s="0" t="n">
+      <c r="U52" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V52" s="0" t="n">
+      <c r="W52" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W52" s="0" t="n">
+      <c r="X52" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="X52" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="Y52" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z52" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA52" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="0" t="n">
+      <c r="B53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E53" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I53" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="0" t="n">
         <v>125</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M53" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M53" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>32</v>
+      <c r="N53" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R53" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="S53" s="0" t="n">
+      <c r="T53" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V53" s="0" t="n">
+      <c r="U53" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W53" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W53" s="0" t="n">
+      <c r="X53" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="X53" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="Y53" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z53" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA53" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB53" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="H54" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I54" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="0" t="n">
         <v>125</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M54" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M54" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>32</v>
+      <c r="N54" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R54" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S54" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="S54" s="0" t="n">
+      <c r="T54" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T54" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V54" s="0" t="n">
+      <c r="U54" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W54" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="W54" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X54" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y54" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z54" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA54" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="0" t="n">
+      <c r="B55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E55" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M55" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M55" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N55" s="0" t="s">
-        <v>32</v>
+      <c r="N55" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R55" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S55" s="0" t="n">
         <v>702</v>
       </c>
-      <c r="S55" s="0" t="n">
+      <c r="T55" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T55" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V55" s="0" t="n">
+      <c r="U55" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W55" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W55" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X55" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y55" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z55" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA55" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="0" t="n">
+      <c r="B56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E56" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H56" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M56" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M56" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N56" s="0" t="s">
-        <v>32</v>
+      <c r="N56" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R56" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S56" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S56" s="0" t="n">
+      <c r="T56" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V56" s="0" t="n">
+      <c r="U56" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W56" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W56" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X56" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z56" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA56" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="0" t="n">
+      <c r="B57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E57" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="K57" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="L57" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="M57" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M57" s="0" t="n">
+      <c r="N57" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N57" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O57" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R57" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S57" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="S57" s="0" t="n">
+      <c r="T57" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T57" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V57" s="0" t="n">
+      <c r="U57" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W57" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W57" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X57" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y57" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z57" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA57" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="0" t="n">
+      <c r="B58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E58" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="I58" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="K58" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="L58" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="M58" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M58" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>32</v>
+      <c r="N58" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R58" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S58" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="S58" s="0" t="n">
+      <c r="T58" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V58" s="0" t="n">
+      <c r="U58" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W58" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W58" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X58" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y58" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z58" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA58" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB58" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="0" t="n">
+      <c r="B59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E59" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="0" t="n">
         <v>125</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M59" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M59" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>32</v>
+      <c r="N59" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R59" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S59" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="S59" s="0" t="n">
+      <c r="T59" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V59" s="0" t="n">
+      <c r="U59" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="W59" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X59" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y59" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z59" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA59" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB59" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="0" t="n">
+      <c r="B60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E60" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="I60" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L60" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M60" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M60" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N60" s="0" t="s">
-        <v>32</v>
+      <c r="N60" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R60" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S60" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S60" s="0" t="n">
+      <c r="T60" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V60" s="0" t="n">
+      <c r="U60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W60" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W60" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X60" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y60" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z60" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA60" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB60" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="0" t="n">
+      <c r="B61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E61" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="K61" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="L61" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="M61" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M61" s="0" t="n">
+      <c r="N61" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O61" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R61" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S61" s="0" t="n">
         <v>702</v>
       </c>
-      <c r="S61" s="0" t="n">
+      <c r="T61" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V61" s="0" t="n">
+      <c r="U61" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W61" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W61" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X61" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y61" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z61" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA61" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB61" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="0" t="n">
+      <c r="B62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E62" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="K62" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="L62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="M62" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M62" s="0" t="n">
+      <c r="N62" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N62" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O62" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R62" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S62" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="S62" s="0" t="n">
+      <c r="T62" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V62" s="0" t="n">
+      <c r="U62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W62" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W62" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X62" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y62" s="0" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Z62" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA62" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="0" t="n">
+      <c r="B63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>28</v>
@@ -5052,67 +5219,70 @@
       <c r="G63" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="0" t="n">
+      <c r="H63" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="K63" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="L63" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="M63" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M63" s="0" t="n">
+      <c r="N63" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N63" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O63" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R63" s="0" t="n">
+      <c r="P63" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S63" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U63" s="0" t="n">
+      <c r="V63" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V63" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W63" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X63" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y63" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z63" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA63" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="0" t="n">
+      <c r="B64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="0" t="n">
         <v>2.7</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>28</v>
@@ -5123,227 +5293,212 @@
       <c r="G64" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="0" t="n">
+      <c r="H64" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="K64" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="L64" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="M64" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="N64" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N64" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O64" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R64" s="0" t="n">
+      <c r="P64" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S64" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="U64" s="0" t="n">
+      <c r="V64" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V64" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W64" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X64" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y64" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z64" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA64" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="0" t="n">
+      <c r="B65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E65" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I65" s="0" t="n">
+      <c r="H65" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="K65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="L65" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="M65" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="N65" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N65" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="O65" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R65" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S65" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="S65" s="0" t="n">
+      <c r="T65" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T65" s="0" t="n">
+      <c r="U65" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V65" s="0" t="n">
+      <c r="W65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="W65" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X65" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y65" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z65" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA65" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="0" t="n">
+      <c r="B66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E66" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I66" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" s="0" t="n">
         <v>125</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M66" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="M66" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>32</v>
+      <c r="N66" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R66" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S66" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="S66" s="0" t="n">
+      <c r="T66" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V66" s="0" t="n">
+      <c r="U66" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W66" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="W66" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="X66" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y66" s="0" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z66" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA66" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/params_1020.xlsx
+++ b/app/data/params_1020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="127">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
   </si>
 </sst>
 </file>
@@ -488,13 +491,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -514,10 +521,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB66"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S33" activeCellId="0" sqref="S33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I71" activeCellId="0" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5499,7 +5506,84 @@
         <v>5</v>
       </c>
     </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C67" r:id="rId1" display="Сулугуни &quot;Зеленая линия&quot;, 45%, 0,28 кг, т/ф"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
